--- a/Зависимость времени от потоков.xlsx
+++ b/Зависимость времени от потоков.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>500</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Потоки</t>
   </si>
@@ -82,8 +79,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -148,7 +145,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8865642078191175E-2"/>
+          <c:y val="0.12425997597757905"/>
+          <c:w val="0.90152437120839146"/>
+          <c:h val="0.76740353218559543"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -290,6 +297,7 @@
         <c:axId val="593497536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="12"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -347,6 +355,7 @@
         <c:crossAx val="593500160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="593500160"/>
@@ -455,7 +464,413 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3779163437265996E-2"/>
+          <c:y val="0.12484444444444444"/>
+          <c:w val="0.89918935089799001"/>
+          <c:h val="0.77205214348206475"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.659722222222222E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3634259259259257E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5949074074074079E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8009259259259256E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5509259259259262E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1574074074074074E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8101851851851856E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5787037037037038E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3587962962962964E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.115740740740741E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9189814814814816E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9421296296296288E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC09-4D32-B118-165049E861A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="595832096"/>
+        <c:axId val="595830128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="595832096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595830128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="595830128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$-F400]h:mm:ss\ AM/PM" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595832096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1011,20 +1426,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1038,6 +1969,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1312,7 +2273,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,14 +2281,14 @@
     <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="B1" s="4">
+        <v>500</v>
+      </c>
+      <c r="C1" s="3">
         <v>1000</v>
       </c>
     </row>
@@ -1444,8 +2405,8 @@
         <v>2.7893518518518519E-3</v>
       </c>
       <c r="C10" s="1">
-        <f>TIMEVALUE("0:04:01")</f>
-        <v>2.7893518518518519E-3</v>
+        <f>TIMEVALUE("0:07:43")</f>
+        <v>5.3587962962962964E-3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1457,8 +2418,8 @@
         <v>2.6041666666666665E-3</v>
       </c>
       <c r="C11" s="1">
-        <f>TIMEVALUE("0:03:45")</f>
-        <v>2.6041666666666665E-3</v>
+        <f>TIMEVALUE("0:07:22")</f>
+        <v>5.115740740740741E-3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1470,8 +2431,8 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="C12" s="1">
-        <f>TIMEVALUE("0:03:36")</f>
-        <v>2.5000000000000001E-3</v>
+        <f>TIMEVALUE("0:07:05")</f>
+        <v>4.9189814814814816E-3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1483,8 +2444,8 @@
         <v>2.5462962962962961E-3</v>
       </c>
       <c r="C13" s="1">
-        <f>TIMEVALUE("0:03:40")</f>
-        <v>2.5462962962962961E-3</v>
+        <f>TIMEVALUE("0:07:07")</f>
+        <v>4.9421296296296288E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Зависимость времени от потоков.xlsx
+++ b/Зависимость времени от потоков.xlsx
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Потоки</t>
+  </si>
+  <si>
+    <t>RAM, МБ</t>
   </si>
 </sst>
 </file>
@@ -830,6 +833,362 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RAM, МБ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1038</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1127</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1557</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8563-478D-B7B3-DC5CAA5A32DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="196758664"/>
+        <c:axId val="196745544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="196758664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196745544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="196745544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196758664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -910,6 +1269,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1427,6 +1826,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1999,6 +2914,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2270,10 +3215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2281,7 +3226,7 @@
     <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2291,8 +3236,11 @@
       <c r="C1" s="3">
         <v>1000</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2304,8 +3252,11 @@
         <f>TIMEVALUE("00:38:18")</f>
         <v>2.659722222222222E-2</v>
       </c>
+      <c r="D2">
+        <v>154</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2317,8 +3268,11 @@
         <f>TIMEVALUE("0:19:38")</f>
         <v>1.3634259259259257E-2</v>
       </c>
+      <c r="D3">
+        <v>271</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2330,8 +3284,11 @@
         <f>TIMEVALUE("0:13:49")</f>
         <v>9.5949074074074079E-3</v>
       </c>
+      <c r="D4">
+        <v>481</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2343,8 +3300,11 @@
         <f>TIMEVALUE("0:11:14")</f>
         <v>7.8009259259259256E-3</v>
       </c>
+      <c r="D5">
+        <v>593</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2356,8 +3316,11 @@
         <f>TIMEVALUE("0:09:26")</f>
         <v>6.5509259259259262E-3</v>
       </c>
+      <c r="D6">
+        <v>676</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2369,8 +3332,11 @@
         <f>TIMEVALUE("0:08:52")</f>
         <v>6.1574074074074074E-3</v>
       </c>
+      <c r="D7">
+        <v>789</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2382,8 +3348,11 @@
         <f>TIMEVALUE("0:08:22")</f>
         <v>5.8101851851851856E-3</v>
       </c>
+      <c r="D8">
+        <v>867</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2395,8 +3364,11 @@
         <f>TIMEVALUE("0:08:02")</f>
         <v>5.5787037037037038E-3</v>
       </c>
+      <c r="D9">
+        <v>1011</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2408,8 +3380,11 @@
         <f>TIMEVALUE("0:07:43")</f>
         <v>5.3587962962962964E-3</v>
       </c>
+      <c r="D10">
+        <v>1038</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2421,8 +3396,11 @@
         <f>TIMEVALUE("0:07:22")</f>
         <v>5.115740740740741E-3</v>
       </c>
+      <c r="D11">
+        <v>1127</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2434,8 +3412,11 @@
         <f>TIMEVALUE("0:07:05")</f>
         <v>4.9189814814814816E-3</v>
       </c>
+      <c r="D12">
+        <v>1331</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2446,6 +3427,9 @@
       <c r="C13" s="1">
         <f>TIMEVALUE("0:07:07")</f>
         <v>4.9421296296296288E-3</v>
+      </c>
+      <c r="D13">
+        <v>1557</v>
       </c>
     </row>
   </sheetData>

--- a/Зависимость времени от потоков.xlsx
+++ b/Зависимость времени от потоков.xlsx
@@ -29,7 +29,7 @@
     <t>Потоки</t>
   </si>
   <si>
-    <t>RAM, МБ</t>
+    <t>RAM(10^3), МБ</t>
   </si>
 </sst>
 </file>
@@ -893,7 +893,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RAM, МБ</c:v>
+                  <c:v>RAM(10^3), МБ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2861,16 +2861,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2892,15 +2892,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>80961</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2921,16 +2921,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3217,13 +3217,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
